--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1620190.839427387</v>
+        <v>1614469.227459501</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>270.6226856612333</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>253.5111876485552</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>27.457978586098</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>49.38957925603694</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>240.6579907362634</v>
+        <v>199.7737639022837</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.48734420188163</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>102.4980067434915</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>15.14483238681376</v>
       </c>
       <c r="V8" t="n">
-        <v>288.4186882821375</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>88.01378153007204</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>37.38100496017431</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>77.31354443380393</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>61.50592152375435</v>
+        <v>56.97285057263298</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>74.75769145492404</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>104.3550540205965</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>88.37270607264333</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>214.0910471527949</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2614,7 +2614,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>1.487334137518444</v>
       </c>
     </row>
     <row r="29">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>17.84935903930831</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>181.1375494785995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>212.3540566423244</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>152.6586601346116</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.60776438732</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3441,7 +3441,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>177.0650478152067</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>131.665379230905</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>90.41948680756549</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>77.31354443380485</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>20.84901245549792</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250816</v>
       </c>
     </row>
     <row r="44">
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>12.4644487916328</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>142.3844270995955</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2251.981069572904</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1883.018552632492</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1524.752854025742</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>1138.964601427497</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>727.9786966378899</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>310.0148885360768</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2251.981069572904</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,16 +4415,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.2710210862865</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="C4" t="n">
-        <v>127.3348381583796</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>103.8314457153513</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>103.8314457153513</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>272.8312459770189</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.9194859165262</v>
+        <v>272.8312459770189</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C5" t="n">
-        <v>1546.944160717209</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="D5" t="n">
-        <v>1188.678462110459</v>
+        <v>743.3408592478529</v>
       </c>
       <c r="E5" t="n">
-        <v>1188.678462110459</v>
+        <v>743.3408592478529</v>
       </c>
       <c r="F5" t="n">
-        <v>777.6925573208512</v>
+        <v>736.3953584986494</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="6">
@@ -4646,10 +4646,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598711</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>397.6292392479589</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="C7" t="n">
-        <v>397.6292392479589</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>350.0227938960813</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>350.0227938960813</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>203.132846398171</v>
       </c>
       <c r="G7" t="n">
         <v>99.5995062532301</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.9194859165262</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="8">
@@ -4795,49 +4795,49 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V8" t="n">
         <v>2350.788393182921</v>
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>609.8092554337209</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>609.8092554337209</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>609.8092554337209</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>609.8092554337209</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>320.3920853967602</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5123,7 +5123,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5135,13 +5135,13 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1918.58487523584</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862232</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U13" t="n">
-        <v>1866.513008862232</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V13" t="n">
-        <v>1866.513008862232</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W13" t="n">
-        <v>1751.093193329805</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5281,19 +5281,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5317,7 +5317,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5372,25 +5372,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>492.7083461157117</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>323.7721631878048</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>173.6555237754691</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>173.6555237754691</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>173.6555237754691</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U16" t="n">
-        <v>1866.513008862232</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>1866.513008862232</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W16" t="n">
-        <v>1751.093193329805</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.103642431788</v>
+        <v>895.1493900894816</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>674.3568109459515</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,43 +5500,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2047.844055175504</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5545,22 +5545,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5609,13 +5609,13 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5624,7 +5624,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447819</v>
@@ -5633,7 +5633,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>401.9038525862971</v>
+        <v>301.022461942538</v>
       </c>
       <c r="C19" t="n">
-        <v>401.9038525862971</v>
+        <v>301.022461942538</v>
       </c>
       <c r="D19" t="n">
-        <v>339.7766591279594</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E19" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5676,49 +5676,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431758</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U19" t="n">
-        <v>1355.643526557402</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V19" t="n">
-        <v>1100.959038351515</v>
+        <v>1220.870226851286</v>
       </c>
       <c r="W19" t="n">
-        <v>811.5418683145542</v>
+        <v>931.4530568143252</v>
       </c>
       <c r="X19" t="n">
-        <v>583.5523174165369</v>
+        <v>703.4635059163079</v>
       </c>
       <c r="Y19" t="n">
-        <v>583.5523174165369</v>
+        <v>482.6709267727778</v>
       </c>
     </row>
     <row r="20">
@@ -5731,25 +5731,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
@@ -5758,40 +5758,40 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.0738540998329</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C22" t="n">
-        <v>171.0738540998329</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>171.0738540998329</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>171.0738540998329</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>171.0738540998329</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998329</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -5995,46 +5995,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6065,7 +6065,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6074,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>414.6138567886371</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="C25" t="n">
-        <v>245.6776738607302</v>
+        <v>793.5494586054579</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1650.259425879611</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>1361.156559005254</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V25" t="n">
-        <v>1106.472070799367</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W25" t="n">
-        <v>817.0549007624069</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X25" t="n">
-        <v>817.0549007624069</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y25" t="n">
-        <v>596.2623216188767</v>
+        <v>962.4856415333647</v>
       </c>
     </row>
     <row r="26">
@@ -6223,49 +6223,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>390.3640755286979</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,22 +6572,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>895.1493900894825</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6712,40 +6712,40 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6776,13 +6776,13 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6797,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.6776738607302</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C34" t="n">
-        <v>245.6776738607302</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>1238.561462145125</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V34" t="n">
-        <v>983.8769739392383</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W34" t="n">
-        <v>694.4598039022776</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X34" t="n">
-        <v>466.4702530042603</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y34" t="n">
-        <v>245.6776738607302</v>
+        <v>740.9487232868445</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143013</v>
@@ -6925,40 +6925,40 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3573.86000758939</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353929</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C36" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D36" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E36" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F36" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G36" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H36" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K36" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L36" t="n">
-        <v>2978.149925102192</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1023.336921276364</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C37" t="n">
-        <v>854.4007383484569</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D37" t="n">
-        <v>704.2840989361212</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E37" t="n">
-        <v>556.371005353728</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839441</v>
@@ -7101,13 +7101,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O37" t="n">
         <v>1646.12566951853</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1687.659425210508</v>
+        <v>1667.240599230348</v>
       </c>
       <c r="V37" t="n">
-        <v>1432.974937004621</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W37" t="n">
-        <v>1432.974937004621</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="X37" t="n">
-        <v>1204.985386106604</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.985386106604</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="38">
@@ -7177,19 +7177,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L38" t="n">
-        <v>1803.682313196074</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M38" t="n">
-        <v>2337.214217867999</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N38" t="n">
-        <v>2883.993034926781</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O38" t="n">
-        <v>3763.957685256236</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
         <v>4470.748294107236</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>492.7083461157126</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C40" t="n">
-        <v>323.7721631878057</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D40" t="n">
-        <v>173.65552377547</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E40" t="n">
-        <v>173.65552377547</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F40" t="n">
-        <v>173.65552377547</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
         <v>95.56103444839441</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>895.1493900894825</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>674.3568109459524</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7396,34 +7396,34 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L41" t="n">
-        <v>1614.698881814246</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M41" t="n">
-        <v>2593.249184644075</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>3573.001456870722</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
         <v>4075.973927750058</v>
@@ -7438,25 +7438,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089885</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468559</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3866.104786132288</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>3697.168603204381</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>3547.051963792046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>3399.138870209652</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>3252.248922711742</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>3084.546086086461</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>2938.328899304319</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>4496.535381004075</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>4496.535381004075</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>4496.535381004075</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>4496.535381004075</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X43" t="n">
-        <v>4268.545830106058</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y43" t="n">
-        <v>4047.753250962528</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
@@ -7666,34 +7666,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7745,22 +7745,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7800,10 +7800,10 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7833,22 +7833,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1530.300614186275</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V46" t="n">
-        <v>1530.300614186275</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="W46" t="n">
-        <v>1530.300614186275</v>
+        <v>1666.926296067743</v>
       </c>
       <c r="X46" t="n">
-        <v>1302.311063288258</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y46" t="n">
         <v>1302.311063288258</v>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>258.6211785616943</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9169,25 +9169,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>388.4310778980893</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,10 +9415,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>170.1140909277296</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>219.3344627260153</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10123,10 +10123,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>246.454569480844</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10360,10 +10360,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>189.7998007892644</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>294.8707872801623</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701115</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10834,13 +10834,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>315.167921710931</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L41" t="n">
-        <v>381.817657018402</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.55114770987304</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>88.7122638252243</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23709,13 +23709,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>87.109551494458</v>
+        <v>91.64262244557938</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>91.26811680410418</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>182.1679443159945</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>60.24276694556903</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>5.457902123374339</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>217.0973192145763</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>161.982621142629</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>73.85778156328846</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>65.92599321748318</v>
       </c>
     </row>
     <row r="35">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25368,19 +25368,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>109.1467903904062</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>154.857619105686</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>89.41249337437181</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>88.71226382522337</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>75.50340795434016</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
     </row>
     <row r="44">
@@ -26073,25 +26073,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>273.7473894139801</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>83.3252282894417</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>914260.7145631241</v>
+        <v>914260.7145631242</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>914260.7145631242</v>
+        <v>914260.7145631241</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>914260.7145631241</v>
+        <v>914260.7145631242</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>914260.7145631242</v>
+        <v>914260.7145631241</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>914260.7145631242</v>
+        <v>914260.714563124</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>914260.7145631242</v>
+        <v>914260.7145631241</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651775</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
+        <v>496352.2336087289</v>
+      </c>
+      <c r="F2" t="n">
         <v>496352.2336087288</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>496352.2336087287</v>
+      </c>
+      <c r="H2" t="n">
         <v>496352.2336087289</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>496352.233608729</v>
+      </c>
+      <c r="J2" t="n">
         <v>496352.2336087289</v>
       </c>
-      <c r="H2" t="n">
-        <v>496352.2336087288</v>
-      </c>
-      <c r="I2" t="n">
-        <v>496352.2336087289</v>
-      </c>
-      <c r="J2" t="n">
-        <v>496352.233608729</v>
-      </c>
       <c r="K2" t="n">
-        <v>496352.233608729</v>
+        <v>496352.2336087287</v>
       </c>
       <c r="L2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="M2" t="n">
-        <v>496352.233608729</v>
+        <v>496352.2336087287</v>
       </c>
       <c r="N2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="O2" t="n">
+        <v>496352.2336087289</v>
+      </c>
+      <c r="P2" t="n">
         <v>496352.233608729</v>
-      </c>
-      <c r="P2" t="n">
-        <v>496352.2336087289</v>
       </c>
     </row>
     <row r="3">
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.6079970919</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="F4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="H4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21619.60799709188</v>
-      </c>
       <c r="J4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
+        <v>21619.60799709184</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="O4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21619.60799709188</v>
       </c>
     </row>
     <row r="5">
@@ -26475,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-351882.4475052068</v>
       </c>
       <c r="C6" t="n">
-        <v>238085.4317093381</v>
+        <v>238085.4317093383</v>
       </c>
       <c r="D6" t="n">
-        <v>238085.4317093381</v>
+        <v>238085.431709338</v>
       </c>
       <c r="E6" t="n">
-        <v>-349028.3066354833</v>
+        <v>-349700.2615377412</v>
       </c>
       <c r="F6" t="n">
-        <v>378349.1073579233</v>
+        <v>377677.1524556653</v>
       </c>
       <c r="G6" t="n">
-        <v>378349.1073579232</v>
+        <v>377677.1524556652</v>
       </c>
       <c r="H6" t="n">
-        <v>378349.1073579234</v>
+        <v>377677.1524556653</v>
       </c>
       <c r="I6" t="n">
-        <v>378349.1073579233</v>
+        <v>377677.1524556656</v>
       </c>
       <c r="J6" t="n">
-        <v>201925.8881653305</v>
+        <v>201253.9332630726</v>
       </c>
       <c r="K6" t="n">
-        <v>378349.1073579234</v>
+        <v>377677.1524556652</v>
       </c>
       <c r="L6" t="n">
-        <v>378349.1073579233</v>
+        <v>377677.1524556655</v>
       </c>
       <c r="M6" t="n">
-        <v>248706.7925189788</v>
+        <v>248034.8376167204</v>
       </c>
       <c r="N6" t="n">
-        <v>378349.1073579234</v>
+        <v>377677.1524556655</v>
       </c>
       <c r="O6" t="n">
-        <v>378349.1073579234</v>
+        <v>377677.1524556654</v>
       </c>
       <c r="P6" t="n">
-        <v>378349.1073579233</v>
+        <v>377677.1524556656</v>
       </c>
     </row>
   </sheetData>
@@ -26752,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26770,7 +26770,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,17 +26968,17 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>111.3076844110284</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>70.41158511580198</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>121.1574944321144</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>85.57604253630129</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>173.1261792845316</v>
+        <v>214.0104061185113</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.3446359800557</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>64.81179551555945</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,10 +27909,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>236.0793351214755</v>
       </c>
       <c r="V8" t="n">
-        <v>39.33357018799745</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>124.1317574199469</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,10 +35260,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>797.5422943919208</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230594</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>940.7329133110007</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36135,10 +36135,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>568.8760771471015</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36363,7 +36363,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36372,7 +36372,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>727.3874636142344</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
@@ -36843,10 +36843,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>798.7564048937555</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37080,10 +37080,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>742.1016362021759</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>693.6327734995343</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>539.157696425512</v>
       </c>
       <c r="L38" t="n">
         <v>873.2513289427826</v>
@@ -37554,13 +37554,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>713.9299079303029</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L41" t="n">
-        <v>837.4077714107342</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1614469.227459501</v>
+        <v>1617874.718583949</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>270.6226856612333</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>16.29691721745517</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>49.38957925603694</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>148.3681250208876</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>199.7737639022837</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>102.4980067434915</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>274.487665874544</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>15.14483238681376</v>
       </c>
       <c r="U8" t="n">
-        <v>15.14483238681376</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>59.72683757586831</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>115.8416516122274</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>37.38100496017431</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>45.28085849688337</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>77.31354443380393</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>56.97285057263298</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>95.81514163764196</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>104.3550540205965</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>88.37270607264333</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2614,7 +2614,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>77.31354443380475</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.487334137518444</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.84935903930831</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>91.08551991617546</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>18.93482921065027</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>152.6586601346116</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.60776438732</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>131.665379230905</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>90.41948680756549</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>18.67036458428391</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>113.5103646250816</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>67.41386939711252</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>142.3844270995955</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.714918859356</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2680.687558475338</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2426.92577311343</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2095.862885769859</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1743.094230499745</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1369.628472238665</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1369.628472238665</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,10 +4415,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>272.8312459770189</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>272.8312459770189</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>272.8312459770189</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>272.8312459770189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>272.8312459770189</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>103.8314457153513</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>103.8314457153513</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>272.8312459770189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>272.8312459770189</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1470.569074795015</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="C5" t="n">
-        <v>1101.606557854603</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D5" t="n">
-        <v>743.3408592478529</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>743.3408592478529</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>736.3953584986494</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1857.168914859137</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4649,40 +4649,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084171</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>350.0227938960813</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>350.0227938960813</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>203.132846398171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084171</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117928</v>
+        <v>847.8148076117927</v>
       </c>
       <c r="C8" t="n">
         <v>478.8522906713811</v>
@@ -4792,25 +4792,25 @@
         <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4834,13 +4834,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="U8" t="n">
         <v>2681.851280526491</v>
       </c>
       <c r="V8" t="n">
-        <v>2350.788393182921</v>
+        <v>2350.78839318292</v>
       </c>
       <c r="W8" t="n">
         <v>1998.019737912806</v>
@@ -4849,7 +4849,7 @@
         <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675915</v>
+        <v>1234.414647675914</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>559.1928012785272</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661915</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837983</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.273120785888</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.273120785888</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5020,67 +5020,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>263.2638710736754</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C13" t="n">
-        <v>263.2638710736754</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="D13" t="n">
-        <v>263.2638710736754</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736754</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1918.58487523584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1726.898991062666</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1726.898991062666</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1437.79612418831</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1183.111635982423</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>893.6944659454626</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X13" t="n">
-        <v>665.7049150474453</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y13" t="n">
-        <v>444.9123359039152</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427193</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
         <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2593.249184644075</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N14" t="n">
-        <v>3573.001456870722</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5348,22 +5348,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5372,7 +5372,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
         <v>2436.460902902952</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>492.7083461157117</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="C16" t="n">
-        <v>323.7721631878048</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D16" t="n">
-        <v>173.6555237754691</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E16" t="n">
-        <v>173.6555237754691</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F16" t="n">
-        <v>173.6555237754691</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104703</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1667.240599230347</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>1412.55611102446</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>1123.138940987499</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X16" t="n">
-        <v>895.1493900894816</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y16" t="n">
-        <v>674.3568109459515</v>
+        <v>901.3723255570255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,19 +5500,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
@@ -5524,28 +5524,28 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>301.022461942538</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="C19" t="n">
-        <v>301.022461942538</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D19" t="n">
-        <v>243.4741280307875</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1475.554715057173</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V19" t="n">
-        <v>1220.870226851286</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W19" t="n">
-        <v>931.4530568143252</v>
+        <v>1604.876006547663</v>
       </c>
       <c r="X19" t="n">
-        <v>703.4635059163079</v>
+        <v>1376.886455649646</v>
       </c>
       <c r="Y19" t="n">
-        <v>482.6709267727778</v>
+        <v>1156.093876506116</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,7 +5737,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5758,16 +5758,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.293752345675</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2047.844055175504</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N20" t="n">
-        <v>3027.596327402151</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O20" t="n">
-        <v>3907.560977731605</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
         <v>4470.748294107236</v>
@@ -5794,10 +5794,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839441</v>
@@ -5940,22 +5940,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>893.6944659454626</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>665.7049150474453</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>444.9123359039152</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
@@ -6065,7 +6065,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>962.4856415333647</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>793.5494586054579</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1734.57685067423</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1479.892362468343</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1190.475192431382</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>962.4856415333647</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>962.4856415333647</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,13 +6211,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6226,28 +6226,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2215.249704195857</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2762.028521254639</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6262,16 +6262,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6308,10 +6308,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>390.3640755286979</v>
+        <v>414.613856788637</v>
       </c>
       <c r="C28" t="n">
-        <v>390.3640755286979</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D28" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839441</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1878.248976777628</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1878.248976777628</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1589.146109903272</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1334.461621697385</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>1045.044451660424</v>
       </c>
       <c r="X28" t="n">
-        <v>391.866433243363</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="Y28" t="n">
-        <v>390.3640755286979</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6466,16 +6466,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2782.232616025903</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>3573.001456870721</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6560,16 +6560,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>877.1197344942216</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="C31" t="n">
-        <v>708.1835515663147</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839441</v>
@@ -6621,10 +6621,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W31" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X31" t="n">
-        <v>895.1493900894825</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y31" t="n">
-        <v>895.1493900894825</v>
+        <v>389.6913148129298</v>
       </c>
     </row>
     <row r="32">
@@ -6688,16 +6688,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6718,19 +6718,19 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6776,13 +6776,13 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6797,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>559.3002584566048</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C34" t="n">
-        <v>390.3640755286979</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286979</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>895.1493900894825</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>740.9487232868445</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N35" t="n">
-        <v>3070.887536710053</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O35" t="n">
-        <v>3573.86000758939</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353929</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,7 +7046,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7055,7 +7055,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>877.1197344942216</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C37" t="n">
-        <v>708.1835515663147</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D37" t="n">
-        <v>558.0669121539789</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1538185715858</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7101,13 +7101,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
         <v>1646.12566951853</v>
@@ -7128,19 +7128,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1667.240599230348</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V37" t="n">
-        <v>1412.556111024461</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W37" t="n">
-        <v>1279.560778467991</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X37" t="n">
-        <v>1279.560778467991</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y37" t="n">
-        <v>1058.768199324461</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7171,55 +7171,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>818.2062848686767</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1682.725100522031</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193956</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420603</v>
+        <v>3195.001976422504</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>481.6968904858347</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7414,10 +7414,10 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>818.2062848686776</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1682.725100522032</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M41" t="n">
         <v>2216.257005193957</v>
@@ -7438,25 +7438,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>747.3928343215996</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>578.4566513936927</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>428.340011981357</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>428.340011981357</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783409</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W43" t="n">
-        <v>619.8559841413803</v>
+        <v>1377.823429193387</v>
       </c>
       <c r="X43" t="n">
-        <v>391.866433243363</v>
+        <v>1149.833878295369</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>929.0412991518393</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7648,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>351.3014367967911</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>685.1208104866375</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1549.639626139992</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2528.189928969821</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1120.662598458018</v>
+        <v>500.2948715744233</v>
       </c>
       <c r="C46" t="n">
-        <v>951.7264155301116</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="D46" t="n">
-        <v>801.6097761177758</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="E46" t="n">
-        <v>653.6966825353827</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374723</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>163.6558520212353</v>
       </c>
       <c r="H46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839441</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U46" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V46" t="n">
-        <v>1956.343466104704</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W46" t="n">
-        <v>1666.926296067743</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X46" t="n">
-        <v>1523.103642431788</v>
+        <v>902.7359155481931</v>
       </c>
       <c r="Y46" t="n">
-        <v>1302.311063288258</v>
+        <v>681.943336404663</v>
       </c>
     </row>
   </sheetData>
@@ -8063,10 +8063,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>258.6211785616943</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>246.454569480844</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9418,7 +9418,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>170.1140909277296</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>219.3344627260153</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10123,10 +10123,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>246.454569480844</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>219.3344627260163</v>
       </c>
       <c r="P35" t="n">
-        <v>294.8707872801623</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>201.9664098701115</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,13 +11062,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>201.9664098701124</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>67.53663776704161</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>30.59231103434182</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.55114770987304</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>134.5511216850539</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>88.7122638252243</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>91.64262244557938</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>190.7078566989491</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>182.1679443159945</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>60.24276694556903</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24414,13 +24414,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>112.4554808976371</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.0973192145763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161.982621142629</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>127.4991334359193</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>148.3119918879776</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25125,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>65.92599321748318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25368,16 +25368,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>154.857619105686</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.41249337437181</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7506834386473</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>77.34114551720826</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -26082,13 +26082,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>83.3252282894417</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>914260.7145631242</v>
+        <v>914260.7145631241</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>914260.7145631242</v>
+        <v>914260.7145631241</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>914260.714563124</v>
+        <v>914260.7145631241</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>914260.7145631241</v>
+        <v>914260.7145631242</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>914260.7145631242</v>
+        <v>914260.7145631241</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651775</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
+        <v>496352.233608729</v>
+      </c>
+      <c r="F2" t="n">
+        <v>496352.2336087287</v>
+      </c>
+      <c r="G2" t="n">
         <v>496352.2336087289</v>
-      </c>
-      <c r="F2" t="n">
-        <v>496352.2336087288</v>
-      </c>
-      <c r="G2" t="n">
-        <v>496352.2336087287</v>
       </c>
       <c r="H2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="I2" t="n">
-        <v>496352.233608729</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="J2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="K2" t="n">
-        <v>496352.2336087287</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="L2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="M2" t="n">
-        <v>496352.2336087287</v>
+        <v>496352.233608729</v>
       </c>
       <c r="N2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.233608729</v>
       </c>
       <c r="O2" t="n">
         <v>496352.2336087289</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389449</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.6079970919</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="N4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="L4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21619.60799709184</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="P4" t="n">
         <v>21619.60799709186</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26490,7 +26490,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26499,13 +26499,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-351882.4475052068</v>
+        <v>-351882.4475052066</v>
       </c>
       <c r="C6" t="n">
-        <v>238085.4317093383</v>
+        <v>238085.4317093375</v>
       </c>
       <c r="D6" t="n">
-        <v>238085.431709338</v>
+        <v>238085.4317093378</v>
       </c>
       <c r="E6" t="n">
-        <v>-349700.2615377412</v>
+        <v>-349095.5021257091</v>
       </c>
       <c r="F6" t="n">
-        <v>377677.1524556653</v>
+        <v>378281.9118676974</v>
       </c>
       <c r="G6" t="n">
-        <v>377677.1524556652</v>
+        <v>378281.9118676976</v>
       </c>
       <c r="H6" t="n">
-        <v>377677.1524556653</v>
+        <v>378281.9118676976</v>
       </c>
       <c r="I6" t="n">
-        <v>377677.1524556656</v>
+        <v>378281.9118676974</v>
       </c>
       <c r="J6" t="n">
-        <v>201253.9332630726</v>
+        <v>201858.6926751047</v>
       </c>
       <c r="K6" t="n">
-        <v>377677.1524556652</v>
+        <v>378281.9118676977</v>
       </c>
       <c r="L6" t="n">
-        <v>377677.1524556655</v>
+        <v>378281.9118676974</v>
       </c>
       <c r="M6" t="n">
-        <v>248034.8376167204</v>
+        <v>248639.5970287528</v>
       </c>
       <c r="N6" t="n">
-        <v>377677.1524556655</v>
+        <v>378281.9118676976</v>
       </c>
       <c r="O6" t="n">
-        <v>377677.1524556654</v>
+        <v>378281.9118676975</v>
       </c>
       <c r="P6" t="n">
-        <v>377677.1524556656</v>
+        <v>378281.9118676977</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26770,7 +26770,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,22 +26977,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>111.3076844110284</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>200.1514031402026</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>85.57604253630129</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>216.9047667501199</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>214.0104061185113</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>64.81179551555945</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>12.03533246204699</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>201.303487970844</v>
       </c>
       <c r="U8" t="n">
-        <v>236.0793351214755</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>96.44405126592684</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33025,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.306058528246</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>797.5422943919208</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>798.7564048937555</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36138,7 +36138,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>568.8760771471015</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36360,7 +36360,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
@@ -36372,7 +36372,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>727.3874636142344</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>798.7564048937555</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882193</v>
+        <v>727.3874636142355</v>
       </c>
       <c r="P35" t="n">
-        <v>693.6327734995343</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>539.157696425512</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>502.5482327048862</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>539.1576964255129</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
         <v>989.6487598248956</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>258.3236387357542</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38031,7 +38031,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38040,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
